--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSDL\HQT\CSDLNC_PKNK_21HTT1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FAF921-A2BF-46C9-802B-48EE75F5120E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CDDF57-95D6-4B35-8D15-E9DE34EC6F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>account_adst</t>
   </si>
@@ -72,12 +72,6 @@
     <t>quantity_medicine</t>
   </si>
   <si>
-    <t>treatmentid,medicineid</t>
-  </si>
-  <si>
-    <t>medicineid,department</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -100,6 +94,54 @@
   </si>
   <si>
     <t>patient,id</t>
+  </si>
+  <si>
+    <t>Màu</t>
+  </si>
+  <si>
+    <t>Tần suất</t>
+  </si>
+  <si>
+    <t>Thấp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trung bình </t>
+  </si>
+  <si>
+    <t>Cao</t>
+  </si>
+  <si>
+    <t>treatment,medicine</t>
+  </si>
+  <si>
+    <t>medicine,department</t>
+  </si>
+  <si>
+    <t>Tần suất truy vấn trên các trường không phải khóa chính</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Không sử dụng được partition trên TREATMENT vì không đảm bảo được tính đúng đắn của dữ liệu, phải cài thêm trigger -&gt; không đáng </t>
+  </si>
+  <si>
+    <t>Partition</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Sử dụng tỉ lệ true/false của điều kiện ở mệnh đề where để xác định xem nên để điều kiện nào trước (chọn điều kiện có tỉ lệ đúng thấp hơn)</t>
+  </si>
+  <si>
+    <t>Ví dụ: department (1/100), date (càng nhỏ nếu thời gian sử dụng app càng dài), nên để date trước khi dữ liệu đủ lớn và trải dài nhiều năm</t>
+  </si>
+  <si>
+    <t>Trigger</t>
+  </si>
+  <si>
+    <t>Các phép tính ở trigger được tính 1 lần và gắn vào 1 biến tạm để update cho nhiều bảng</t>
+  </si>
+  <si>
+    <t>Sử dụng partition trên bảng SCHEDULE để dễ dàng trong việc xóa sắp xếp dữ liệu, cũng như thuận tiện hơn trong việc truy vấn đối với bảng &gt; 60000000 dòng</t>
   </si>
 </sst>
 </file>
@@ -135,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -143,14 +185,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,128 +552,279 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.109375" customWidth="1"/>
-    <col min="2" max="3" width="26.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="G4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>16</v>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
